--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T55.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T55.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2058601671287587</v>
+        <v>-0.05662722568076514</v>
       </c>
       <c r="C2">
-        <v>1.946233578303983</v>
+        <v>2.181838915208745</v>
       </c>
       <c r="D2">
-        <v>16.59014669592999</v>
+        <v>17.88885873886894</v>
       </c>
       <c r="E2">
-        <v>4.073100378818326</v>
+        <v>4.229522282583335</v>
       </c>
       <c r="F2">
-        <v>4.168351796801189</v>
+        <v>4.333582201942138</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6704101255681892</v>
+        <v>0.927092264295462</v>
       </c>
       <c r="C3">
-        <v>2.029220998348131</v>
+        <v>2.285903137075404</v>
       </c>
       <c r="D3">
-        <v>17.58159910820599</v>
+        <v>20.1805982684956</v>
       </c>
       <c r="E3">
-        <v>4.193041748922372</v>
+        <v>4.492282078019545</v>
       </c>
       <c r="F3">
-        <v>4.236503984241162</v>
+        <v>4.499016614473818</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.7120525089141153</v>
+        <v>-0.2082090657517003</v>
       </c>
       <c r="C4">
-        <v>1.469825953645</v>
+        <v>1.005865323363158</v>
       </c>
       <c r="D4">
-        <v>9.076919335583067</v>
+        <v>3.987134668739914</v>
       </c>
       <c r="E4">
-        <v>3.012792614101254</v>
+        <v>1.996781076818366</v>
       </c>
       <c r="F4">
-        <v>3.00348929713989</v>
+        <v>2.040314374195741</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T55.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T55.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05662722568076514</v>
+        <v>-0.08279561087709399</v>
       </c>
       <c r="C2">
-        <v>2.181838915208745</v>
+        <v>2.111406769062893</v>
       </c>
       <c r="D2">
-        <v>17.88885873886894</v>
+        <v>17.09390349523057</v>
       </c>
       <c r="E2">
-        <v>4.229522282583335</v>
+        <v>4.134477415010338</v>
       </c>
       <c r="F2">
-        <v>4.333582201942138</v>
+        <v>4.230923936047997</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.927092264295462</v>
+        <v>0.9006556730100386</v>
       </c>
       <c r="C3">
-        <v>2.285903137075404</v>
+        <v>2.200387812214267</v>
       </c>
       <c r="D3">
-        <v>20.1805982684956</v>
+        <v>19.30760674930202</v>
       </c>
       <c r="E3">
-        <v>4.492282078019545</v>
+        <v>4.394042187929244</v>
       </c>
       <c r="F3">
-        <v>4.499016614473818</v>
+        <v>4.397405229137807</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2082090657517003</v>
+        <v>-0.1540770173485546</v>
       </c>
       <c r="C4">
-        <v>1.005865323363158</v>
+        <v>0.9992936523105611</v>
       </c>
       <c r="D4">
-        <v>3.987134668739914</v>
+        <v>3.826009492865405</v>
       </c>
       <c r="E4">
-        <v>1.996781076818366</v>
+        <v>1.956018786429569</v>
       </c>
       <c r="F4">
-        <v>2.040314374195741</v>
+        <v>2.000597217567105</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
